--- a/excel/card_heap.xlsx
+++ b/excel/card_heap.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD9DE17-B7D0-47C1-A744-CB78706AE8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -36,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平拳套装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number[][]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,18 +57,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40002,5|40005,2|40008,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40104,5|40002,5|40008,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角套装（拳法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001,5|40005,2|40007,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40004,5|40007,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂鱼套1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂鱼套2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -405,20 +418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -426,11 +439,11 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,63 +451,71 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>80001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>80002</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>80003</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>80004</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>80005</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>80006</v>
       </c>
@@ -502,12 +523,12 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>80007</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>80008</v>
       </c>

--- a/excel/card_heap.xlsx
+++ b/excel/card_heap.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD9DE17-B7D0-47C1-A744-CB78706AE8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32F39F-E739-4A3B-BEFD-5AF81CC3FFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -69,15 +69,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40004,5|40007,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂鱼套1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂鱼套2</t>
+    <t>土匪1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土匪2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001,3|40007,3|40010,1|40258,2|40262,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001,3|40007,3|40274,1|40266,2|40262,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山弟子1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山弟子2</t>
+  </si>
+  <si>
+    <t>40004,3|40007,3|40192,2|40065,1|40177,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40004,3|40007,3|40056,1|40180,1|40186,1|40095,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒弟子1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒弟子2</t>
+  </si>
+  <si>
+    <t>40004,1|40007,1|40104,2|40020,1|40113,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40207,1|40212,1|40007,2|40218,1|40113,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野和尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001,2|40007,3|40001,2|40124,1|40133,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑衣人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林羽凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知远山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马之秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40104,2|40001,2|40004,2|40007,2|40053,1|40059,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001,2|40007,3|40256,2|40171,1|40173,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40113,3|40007,1|40077,1|40018,1|40232,1|40278,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40004,2|40007,3|40276,1|40014,1|40156,1|40197,1|40053,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40032,3|40007,3|40001,3|40278,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘墨江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40032,3|40007,3|40001,3|40010,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001,3|40007,3|40130,1|40218,1|40266,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001,3|40007,3|40071,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,12 +237,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -419,16 +528,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,10 +605,10 @@
         <v>80004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -508,10 +617,10 @@
         <v>80005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -519,18 +628,184 @@
       <c r="A8" s="1">
         <v>80006</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>80007</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>80008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>80009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>80010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>80011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>80012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>80013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>80014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>80015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>80016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>80017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>80018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>80019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>80020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>80021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>80022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>80023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>80024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>80025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>80026</v>
       </c>
     </row>
   </sheetData>
